--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/22.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/22.xlsx
@@ -479,13 +479,13 @@
         <v>-9.704847235143056</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.43557618601358</v>
+        <v>-10.45013482677358</v>
       </c>
       <c r="F2" t="n">
-        <v>2.730658889859714</v>
+        <v>2.674676202908493</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.66165689595106</v>
+        <v>-15.55104002924132</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.133641205208095</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.93622584668119</v>
+        <v>-10.95185805627421</v>
       </c>
       <c r="F3" t="n">
-        <v>2.604475275071158</v>
+        <v>2.55404372452483</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.25157978634252</v>
+        <v>-15.14083199660435</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.397776220444007</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.23899844219894</v>
+        <v>-11.25929151160362</v>
       </c>
       <c r="F4" t="n">
-        <v>2.744117777181009</v>
+        <v>2.691905673448205</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.74052174491574</v>
+        <v>-14.62702457158082</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.61073310419154</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.77604470476655</v>
+        <v>-11.80366946376259</v>
       </c>
       <c r="F5" t="n">
-        <v>2.805939631199639</v>
+        <v>2.742834731502519</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.12973963274353</v>
+        <v>-14.0190311199139</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.804611480121065</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.50120117456407</v>
+        <v>-12.52260708971029</v>
       </c>
       <c r="F6" t="n">
-        <v>2.83272648281381</v>
+        <v>2.773732566208993</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.6443294125837</v>
+        <v>-13.53884472858791</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-6.045336067910482</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.82412282415524</v>
+        <v>-12.84501813949064</v>
       </c>
       <c r="F7" t="n">
-        <v>3.056552492195959</v>
+        <v>2.985225626314236</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.97930588973822</v>
+        <v>-12.88136237217927</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.365889668821845</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.61506811573244</v>
+        <v>-13.6452720583883</v>
       </c>
       <c r="F8" t="n">
-        <v>3.189570289067896</v>
+        <v>3.110126195424302</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.67649401731194</v>
+        <v>-12.58552869716763</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-4.799073318460121</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.23899489995774</v>
+        <v>-14.26936904255054</v>
       </c>
       <c r="F9" t="n">
-        <v>3.352176690362134</v>
+        <v>3.281268778171345</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.05108780286553</v>
+        <v>-11.97085817105143</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-4.356160228567323</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.22686151857734</v>
+        <v>-15.24430046596252</v>
       </c>
       <c r="F10" t="n">
-        <v>3.538480159799896</v>
+        <v>3.464665756378244</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.72020603314659</v>
+        <v>-11.63492277243558</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.034455752069401</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.09391236657349</v>
+        <v>-16.11264745194</v>
       </c>
       <c r="F11" t="n">
-        <v>3.710774865197011</v>
+        <v>3.643454243984856</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.24646105481873</v>
+        <v>-11.18076387915895</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.826302290762008</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.90656469626227</v>
+        <v>-16.91604352351968</v>
       </c>
       <c r="F12" t="n">
-        <v>3.751884696120031</v>
+        <v>3.690167580524134</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.00653151294125</v>
+        <v>-10.9380194921705</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.703394521006011</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.52293722174789</v>
+        <v>-17.54621533620048</v>
       </c>
       <c r="F13" t="n">
-        <v>3.615855669594497</v>
+        <v>3.553562492673564</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.43315410998786</v>
+        <v>-10.37413400877736</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.647278518361162</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.48337546591407</v>
+        <v>-18.51765111475371</v>
       </c>
       <c r="F14" t="n">
-        <v>3.860288963649523</v>
+        <v>3.809098059538374</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.860038553091304</v>
+        <v>-9.802013466896774</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.620878870678089</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.32183272450389</v>
+        <v>-19.35599054261796</v>
       </c>
       <c r="F15" t="n">
-        <v>3.900875102458873</v>
+        <v>3.84866299872607</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.380611515330136</v>
+        <v>-9.32791499639219</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.6034273344566</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.31485771044313</v>
+        <v>-20.3391963014259</v>
       </c>
       <c r="F16" t="n">
-        <v>4.108911794613901</v>
+        <v>4.06680694867491</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.856277878821849</v>
+        <v>-8.804052682786203</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.566403848043029</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.2744449549246</v>
+        <v>-21.29714700805215</v>
       </c>
       <c r="F17" t="n">
-        <v>4.309931012445762</v>
+        <v>4.264814936853175</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.490609860452441</v>
+        <v>-8.441579186310175</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.496569669853306</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.03967696372065</v>
+        <v>-22.06535096959327</v>
       </c>
       <c r="F18" t="n">
-        <v>4.570651131235896</v>
+        <v>4.512678414252733</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.00334053328908</v>
+        <v>-7.955946397002031</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.379244019097023</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.76026421982641</v>
+        <v>-22.79621568342979</v>
       </c>
       <c r="F19" t="n">
-        <v>4.769627949824448</v>
+        <v>4.714011847352796</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.451015553305182</v>
+        <v>-7.404328401371586</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.211580438488467</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.45790066905062</v>
+        <v>-23.49050050312652</v>
       </c>
       <c r="F20" t="n">
-        <v>4.876225479561782</v>
+        <v>4.828098174315597</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.745929583764024</v>
+        <v>-6.695812248485897</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.993557475208959</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.13153892716596</v>
+        <v>-24.17657644894149</v>
       </c>
       <c r="F21" t="n">
-        <v>4.929484967521923</v>
+        <v>4.887144460131782</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.606326358562699</v>
+        <v>-6.563619266692989</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.732155050575035</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.85737619671125</v>
+        <v>-24.90386696410222</v>
       </c>
       <c r="F22" t="n">
-        <v>5.251529432822702</v>
+        <v>5.209424586883711</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.462376488817921</v>
+        <v>-6.4136731222467</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.437956647051813</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.37873788047446</v>
+        <v>-25.42136641852712</v>
       </c>
       <c r="F23" t="n">
-        <v>5.243883527963133</v>
+        <v>5.210760001773567</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.151840157715021</v>
+        <v>-6.113257141240454</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.121984147861517</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.81920222497865</v>
+        <v>-25.86463251583944</v>
       </c>
       <c r="F24" t="n">
-        <v>5.168602786623208</v>
+        <v>5.143701226618246</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.861073203903127</v>
+        <v>-5.82211051064615</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.797438211284799</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.1473869803122</v>
+        <v>-26.18920379558867</v>
       </c>
       <c r="F25" t="n">
-        <v>5.278159176802772</v>
+        <v>5.250796263863565</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.595325640821771</v>
+        <v>-5.573029449082311</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.47209423809297</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.45694138870197</v>
+        <v>-26.50374637136114</v>
       </c>
       <c r="F26" t="n">
-        <v>5.278342469042556</v>
+        <v>5.259515737556154</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.360685389292356</v>
+        <v>-5.343770134020846</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.156070006779454</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.22825813496554</v>
+        <v>-26.27599267112648</v>
       </c>
       <c r="F27" t="n">
-        <v>5.38994125846543</v>
+        <v>5.373183110828021</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.931336409900791</v>
+        <v>-4.926596996272086</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.8520210821970881</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.38827226029712</v>
+        <v>-26.42536275424773</v>
       </c>
       <c r="F28" t="n">
-        <v>5.191592870413279</v>
+        <v>5.169728724667597</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.759892704188388</v>
+        <v>-4.750296046205404</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.5677762437393852</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.52102821111222</v>
+        <v>-26.5621249497324</v>
       </c>
       <c r="F29" t="n">
-        <v>5.230634117487306</v>
+        <v>5.205994403539179</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.723024779386088</v>
+        <v>-4.721100210868354</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.3055619896882636</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.55696658241276</v>
+        <v>-26.59312752286161</v>
       </c>
       <c r="F30" t="n">
-        <v>5.214556769597667</v>
+        <v>5.18803176404033</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.72957093080695</v>
+        <v>-4.731979914529829</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.07336461294108353</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.1939824861259</v>
+        <v>-26.23806426979399</v>
       </c>
       <c r="F31" t="n">
-        <v>5.078972881368752</v>
+        <v>5.049096246283933</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.932580178670755</v>
+        <v>-4.93451783949133</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.1244632404368873</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.86238063975066</v>
+        <v>-25.9108352525679</v>
       </c>
       <c r="F32" t="n">
-        <v>5.098794627871126</v>
+        <v>5.065540178653141</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.022537391496255</v>
+        <v>-5.027774312632945</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2795634434161427</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.68686522785449</v>
+        <v>-25.72542205972337</v>
       </c>
       <c r="F33" t="n">
-        <v>4.997695865327317</v>
+        <v>4.962660862922857</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.078611724567367</v>
+        <v>-5.072091757752188</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.386658257180107</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.19514451772494</v>
+        <v>-25.22901430517648</v>
       </c>
       <c r="F34" t="n">
-        <v>5.049724676820336</v>
+        <v>5.01159989094523</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.302568656977934</v>
+        <v>-5.290497553757862</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.4384649209523244</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.87181700674567</v>
+        <v>-24.90507145596366</v>
       </c>
       <c r="F35" t="n">
-        <v>4.892564673508256</v>
+        <v>4.852790257475093</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.408066433276563</v>
+        <v>-5.394515899835376</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4328715024239861</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.35713239743174</v>
+        <v>-24.39678898273932</v>
       </c>
       <c r="F36" t="n">
-        <v>5.036475266344509</v>
+        <v>4.988059930435806</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.447893218521093</v>
+        <v>-5.435704284575446</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.3684769414090315</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.79726625101101</v>
+        <v>-23.8234639489973</v>
       </c>
       <c r="F37" t="n">
-        <v>5.009819337758755</v>
+        <v>4.959466341029477</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.544710798035657</v>
+        <v>-5.53290154087242</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.2497946910988527</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.20042744136524</v>
+        <v>-23.23222864496779</v>
       </c>
       <c r="F38" t="n">
-        <v>4.825453529141568</v>
+        <v>4.782275114369556</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.567059358986484</v>
+        <v>-5.560382284537203</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.08247401683798158</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.09358115787391</v>
+        <v>-23.11870528702719</v>
       </c>
       <c r="F39" t="n">
-        <v>4.973475105070123</v>
+        <v>4.929092198436672</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.563720821761843</v>
+        <v>-5.555079901886304</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.1246092327040291</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.37895089956114</v>
+        <v>-22.40679822770549</v>
       </c>
       <c r="F40" t="n">
-        <v>5.139328397469109</v>
+        <v>5.094029029636737</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.613772695525762</v>
+        <v>-5.611337527197201</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.3626858656535576</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.87362728677904</v>
+        <v>-21.90041413839321</v>
       </c>
       <c r="F41" t="n">
-        <v>5.11309142257429</v>
+        <v>5.067425470262349</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.684706792322235</v>
+        <v>-5.670200520773601</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.6233382915326996</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.05331595992785</v>
+        <v>-21.07446002901724</v>
       </c>
       <c r="F42" t="n">
-        <v>5.236420915343349</v>
+        <v>5.184968165175366</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.907419955962837</v>
+        <v>-5.884861918166543</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.8987204275776803</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.55950048134362</v>
+        <v>-20.58187522690013</v>
       </c>
       <c r="F43" t="n">
-        <v>5.2401391293504</v>
+        <v>5.192692623851984</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.020733837057976</v>
+        <v>-6.003438905004056</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.183524335456579</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.90986041433717</v>
+        <v>-19.94012981850724</v>
       </c>
       <c r="F44" t="n">
-        <v>5.112908130334506</v>
+        <v>5.051479045401127</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.032464540404162</v>
+        <v>-6.008754379957796</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.471714203471587</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.38284285574634</v>
+        <v>-19.40650064698133</v>
       </c>
       <c r="F45" t="n">
-        <v>5.043021417765372</v>
+        <v>4.985127254599259</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.018940191568659</v>
+        <v>-5.974452546512474</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.760231251745299</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.72259802343809</v>
+        <v>-18.745601199531</v>
       </c>
       <c r="F46" t="n">
-        <v>5.252184047964787</v>
+        <v>5.194944499940761</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.20462832277286</v>
+        <v>-6.159865739356999</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.042659748948676</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.35909023503757</v>
+        <v>-18.38167445743954</v>
       </c>
       <c r="F47" t="n">
-        <v>5.267056903992988</v>
+        <v>5.206230064990329</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.424853948873534</v>
+        <v>-6.372340722175371</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.317133369709751</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.74456372425263</v>
+        <v>-17.76094219510762</v>
       </c>
       <c r="F48" t="n">
-        <v>5.167581587001554</v>
+        <v>5.10337693386573</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.570099956599643</v>
+        <v>-6.511865393559646</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.576775576510093</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24599573973686</v>
+        <v>-17.25437481355556</v>
       </c>
       <c r="F49" t="n">
-        <v>5.185387118866301</v>
+        <v>5.11824978989393</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.870646860634307</v>
+        <v>-6.803941577655713</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.821487765104115</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.64706216163641</v>
+        <v>-16.65129097545429</v>
       </c>
       <c r="F50" t="n">
-        <v>5.05218602975458</v>
+        <v>4.990809314032568</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.057892975876673</v>
+        <v>-6.984851018322684</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.044716932977404</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.87976156899137</v>
+        <v>-15.89340374855245</v>
       </c>
       <c r="F51" t="n">
-        <v>4.991542482991705</v>
+        <v>4.926028599571708</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.104423020176167</v>
+        <v>-7.032795031329084</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.247012138666002</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.40400037602589</v>
+        <v>-15.41414691072823</v>
       </c>
       <c r="F52" t="n">
-        <v>4.899032271112069</v>
+        <v>4.83176401911128</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.345151192526985</v>
+        <v>-7.267998251880693</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.424255032700771</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.82151073029466</v>
+        <v>-14.82898643521728</v>
       </c>
       <c r="F53" t="n">
-        <v>4.854989764352502</v>
+        <v>4.78541726705157</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.592975393018017</v>
+        <v>-7.51676509817633</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.577298056776307</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.12501331141767</v>
+        <v>-14.13641670719282</v>
       </c>
       <c r="F54" t="n">
-        <v>4.692173886212797</v>
+        <v>4.625848280016613</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.856183049348078</v>
+        <v>-7.770389188826248</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.706362247695127</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.58671018777726</v>
+        <v>-13.59059860172125</v>
       </c>
       <c r="F55" t="n">
-        <v>4.760672814680707</v>
+        <v>4.695054192837977</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.165082842595764</v>
+        <v>-8.078752197657421</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.813099972102367</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.27267821181562</v>
+        <v>-13.28942326715019</v>
       </c>
       <c r="F56" t="n">
-        <v>4.659181283051647</v>
+        <v>4.597830751935319</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.195339154462992</v>
+        <v>-8.111181831796378</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.901975213755451</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.9624168190724</v>
+        <v>-12.97529964506865</v>
       </c>
       <c r="F57" t="n">
-        <v>4.567220947891363</v>
+        <v>4.504404078856762</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.523131140711287</v>
+        <v>-8.435674557728557</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.974385479557904</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.50442188106313</v>
+        <v>-12.52848553368623</v>
       </c>
       <c r="F58" t="n">
-        <v>4.47670076604367</v>
+        <v>4.418466203003672</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.950974505276054</v>
+        <v>-8.855309048411561</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.03755403928698</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.18790236756156</v>
+        <v>-12.20922972889074</v>
       </c>
       <c r="F59" t="n">
-        <v>4.456538619667411</v>
+        <v>4.39448110419763</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.2955377314646</v>
+        <v>-9.194164030561115</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.091961253738794</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.85063155405586</v>
+        <v>-11.87665905210521</v>
       </c>
       <c r="F60" t="n">
-        <v>4.357639364001012</v>
+        <v>4.296000802222166</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.393245587572402</v>
+        <v>-9.290719764018846</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.145435365281126</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.70052830197547</v>
+        <v>-11.71398718929676</v>
       </c>
       <c r="F61" t="n">
-        <v>4.228627811798644</v>
+        <v>4.175446877655553</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.780947951624436</v>
+        <v>-9.676235713496311</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.196716547479924</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.62061288542957</v>
+        <v>-11.62438346864799</v>
       </c>
       <c r="F62" t="n">
-        <v>4.122344497329512</v>
+        <v>4.072331900474118</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.979204693556694</v>
+        <v>-9.878053561801519</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.253390151092248</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.37329928474937</v>
+        <v>-11.38180928159649</v>
       </c>
       <c r="F63" t="n">
-        <v>4.196604039047782</v>
+        <v>4.152037840174546</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.20221898016266</v>
+        <v>-10.1084780918159</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.31281343995124</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.31933281243577</v>
+        <v>-11.32419005679006</v>
       </c>
       <c r="F64" t="n">
-        <v>4.094929215178937</v>
+        <v>4.046618617692968</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.39889155345107</v>
+        <v>-10.29745239103337</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.38147219918453</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.38866964828556</v>
+        <v>-11.38787101781221</v>
       </c>
       <c r="F65" t="n">
-        <v>4.104669888493182</v>
+        <v>4.05436926097527</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.27947665923168</v>
+        <v>-10.17331117548813</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.456077910434202</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.24498162459761</v>
+        <v>-11.23694295065279</v>
       </c>
       <c r="F66" t="n">
-        <v>4.122684897203396</v>
+        <v>4.069399224637571</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.46267725289595</v>
+        <v>-10.35973247565146</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.539672284944237</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.51342620206436</v>
+        <v>-11.49983639171465</v>
       </c>
       <c r="F67" t="n">
-        <v>3.827322545094056</v>
+        <v>3.775110441361253</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.56553038402055</v>
+        <v>-10.4570737472797</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.630308516248582</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51295487916206</v>
+        <v>-11.50279525215688</v>
       </c>
       <c r="F68" t="n">
-        <v>3.947928838872037</v>
+        <v>3.897340180691607</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.34899678732125</v>
+        <v>-10.24428454919312</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.72783672007624</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.45923716060246</v>
+        <v>-11.44487490438509</v>
       </c>
       <c r="F69" t="n">
-        <v>3.910353929716283</v>
+        <v>3.853638073805926</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.40465216670142</v>
+        <v>-10.29411385380873</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.834463845206876</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.6613168549645</v>
+        <v>-11.64036917041774</v>
       </c>
       <c r="F70" t="n">
-        <v>3.67754660058471</v>
+        <v>3.636227292816223</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.4680581893639</v>
+        <v>-10.35784718404225</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.947312727296946</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.62214468486206</v>
+        <v>-11.60533416801328</v>
       </c>
       <c r="F71" t="n">
-        <v>3.587942879935937</v>
+        <v>3.545392895700327</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.46884372753441</v>
+        <v>-10.35728421502006</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.070453221825057</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.78043062621852</v>
+        <v>-11.75635388129259</v>
       </c>
       <c r="F72" t="n">
-        <v>3.62248037483241</v>
+        <v>3.575583746053348</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.62640959223458</v>
+        <v>-10.50876215889883</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.197810383412255</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.16296153064808</v>
+        <v>-12.13298015714052</v>
       </c>
       <c r="F73" t="n">
-        <v>3.721458184315859</v>
+        <v>3.673304694463991</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.41927626897563</v>
+        <v>-10.30505901898441</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.333156172505038</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.46709572566137</v>
+        <v>-12.43346159966098</v>
       </c>
       <c r="F74" t="n">
-        <v>3.714074125513126</v>
+        <v>3.665423128153272</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.331976793627</v>
+        <v>-10.22369035682309</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.468181946923457</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.77920313310528</v>
+        <v>-12.74939195953467</v>
       </c>
       <c r="F75" t="n">
-        <v>3.663904421023632</v>
+        <v>3.612792070729533</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.25229703853226</v>
+        <v>-10.14232169466176</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.606488627940442</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.01688079889398</v>
+        <v>-12.98269679617423</v>
       </c>
       <c r="F76" t="n">
-        <v>3.665946820266941</v>
+        <v>3.618107545683274</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.19497893669118</v>
+        <v>-10.0866401306759</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.738837518776538</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.46153468030752</v>
+        <v>-13.42877773859752</v>
       </c>
       <c r="F77" t="n">
-        <v>3.682809706327084</v>
+        <v>3.633111324739892</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.97234432686763</v>
+        <v>-9.864228090000656</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.868974725281748</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.21545493944831</v>
+        <v>-14.18047230625522</v>
       </c>
       <c r="F78" t="n">
-        <v>3.657148792757301</v>
+        <v>3.606114996280253</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.669034946933362</v>
+        <v>-9.568551522623114</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.988177633517514</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.81640473218638</v>
+        <v>-14.78008668410343</v>
       </c>
       <c r="F79" t="n">
-        <v>3.786893513918806</v>
+        <v>3.734367194917801</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.683449572362102</v>
+        <v>-9.576982965653185</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-6.100810161460325</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.19766568324029</v>
+        <v>-15.15185571559709</v>
       </c>
       <c r="F80" t="n">
-        <v>3.824442238468877</v>
+        <v>3.770030627858663</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.294215408877585</v>
+        <v>-9.195001937942987</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.202013461613104</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.76105365912544</v>
+        <v>-15.71583284511012</v>
       </c>
       <c r="F81" t="n">
-        <v>3.813968396195496</v>
+        <v>3.754555525899743</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.098943711993241</v>
+        <v>-8.997687841815333</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.29405913897829</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.60093797872501</v>
+        <v>-16.56323214654084</v>
       </c>
       <c r="F82" t="n">
-        <v>3.699829700021328</v>
+        <v>3.643087659505287</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.85665755560426</v>
+        <v>-8.761136114071025</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.37668481336475</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.56196537651907</v>
+        <v>-17.51487236319738</v>
       </c>
       <c r="F83" t="n">
-        <v>3.797576833037655</v>
+        <v>3.744526821922981</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.670511193800598</v>
+        <v>-8.573929275737186</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.448618181077193</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.49099518616795</v>
+        <v>-18.43896637467494</v>
       </c>
       <c r="F84" t="n">
-        <v>3.729392119837945</v>
+        <v>3.665423128153272</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.366678121752662</v>
+        <v>-8.275778263122557</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.513697164278699</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.51198533097712</v>
+        <v>-19.45375076793712</v>
       </c>
       <c r="F85" t="n">
-        <v>3.888620706999018</v>
+        <v>3.821378639603913</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.17339645490026</v>
+        <v>-8.090640008637708</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.567509329557085</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.6938798777111</v>
+        <v>-20.63530491479722</v>
       </c>
       <c r="F86" t="n">
-        <v>3.875921173242543</v>
+        <v>3.807710275437151</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.025008294492135</v>
+        <v>-7.941950725264226</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.616650355062879</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.89147209555231</v>
+        <v>-21.83394451686576</v>
       </c>
       <c r="F87" t="n">
-        <v>3.839236540680027</v>
+        <v>3.773827395682764</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.870466751748402</v>
+        <v>-7.786977136526715</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.65503272957682</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.30147383469768</v>
+        <v>-23.24247991809286</v>
       </c>
       <c r="F88" t="n">
-        <v>4.061124889241601</v>
+        <v>3.997313005191028</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.792907949714016</v>
+        <v>-7.714236301938084</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.688982422720457</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.79263475915891</v>
+        <v>-24.73428236539334</v>
       </c>
       <c r="F89" t="n">
-        <v>3.915302820190456</v>
+        <v>3.851438566928516</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.563923573012227</v>
+        <v>-7.499954581327554</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.709813607508103</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.4233465396101</v>
+        <v>-26.35699474880824</v>
       </c>
       <c r="F90" t="n">
-        <v>4.053269507536565</v>
+        <v>3.990531192319013</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.729750680805529</v>
+        <v>-7.657507353724886</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.719898645472924</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.12630164714194</v>
+        <v>-28.06112816359582</v>
       </c>
       <c r="F91" t="n">
-        <v>4.193514255577134</v>
+        <v>4.128340772031022</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.452180768258096</v>
+        <v>-7.39199545209468</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.70698184361451</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.0819120149134</v>
+        <v>-30.01525910114617</v>
       </c>
       <c r="F92" t="n">
-        <v>4.086602510571599</v>
+        <v>4.0242569644393</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.629345810312333</v>
+        <v>-7.566712233517515</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.669125494635653</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.91798965773991</v>
+        <v>-31.84603436132178</v>
       </c>
       <c r="F93" t="n">
-        <v>4.012788107149948</v>
+        <v>3.950652037863116</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.493290599181115</v>
+        <v>-7.436836589327593</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.59455880078915</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.90113313838752</v>
+        <v>-33.82942659572339</v>
       </c>
       <c r="F94" t="n">
-        <v>4.281861115153102</v>
+        <v>4.210062926369076</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.369659983446696</v>
+        <v>-7.325984061166698</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.482105906732007</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.00342966719769</v>
+        <v>-35.92740266459578</v>
       </c>
       <c r="F95" t="n">
-        <v>3.999119742983186</v>
+        <v>3.941042287577289</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.163953721197496</v>
+        <v>-7.135857639299152</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.326222002391027</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.25370849502788</v>
+        <v>-38.17626752371907</v>
       </c>
       <c r="F96" t="n">
-        <v>3.872281513052544</v>
+        <v>3.804803784206288</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.237885955344723</v>
+        <v>-7.201803568712926</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.129783123627591</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.21913808993064</v>
+        <v>-40.14161856480478</v>
       </c>
       <c r="F97" t="n">
-        <v>3.674404447902696</v>
+        <v>3.607659888015577</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.876499120004558</v>
+        <v>-6.853626866940063</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.895188532983035</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.77742643441528</v>
+        <v>-42.6932167425373</v>
       </c>
       <c r="F98" t="n">
-        <v>3.652802148213848</v>
+        <v>3.581580020754858</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.916469920580348</v>
+        <v>-6.89706712776891</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.6327093532431</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.90588138430321</v>
+        <v>-44.8258350447289</v>
       </c>
       <c r="F99" t="n">
-        <v>3.572363039554283</v>
+        <v>3.512635953990328</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.67300545693561</v>
+        <v>-6.661536599646258</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.349579319487821</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.18336601743851</v>
+        <v>-47.1057679384956</v>
       </c>
       <c r="F100" t="n">
-        <v>3.476815413415366</v>
+        <v>3.42261327965062</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.516081115074681</v>
+        <v>-6.517481991478746</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.071087307475434</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.53194185500438</v>
+        <v>-49.44496968722679</v>
       </c>
       <c r="F101" t="n">
-        <v>3.181793461179911</v>
+        <v>3.112273333090346</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.559023868395543</v>
+        <v>-6.571252079249715</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.794833321614066</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.93341059605083</v>
+        <v>-51.84412109067026</v>
       </c>
       <c r="F102" t="n">
-        <v>2.783316131889136</v>
+        <v>2.726416983738995</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.563632358995831</v>
+        <v>-6.567088726946047</v>
       </c>
     </row>
   </sheetData>
